--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_15-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_15-41.xlsx
@@ -32,24 +32,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALEAVIA 20ML DROPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>BIOVIT 12 DEPOT 2 AMP</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">BONDIGA 120ML  SYRUP</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>EMPIR G CAPS</t>
   </si>
   <si>
@@ -104,9 +113,6 @@
     <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>HAEMOKION 10MG/ML 3 AMP.</t>
   </si>
   <si>
@@ -122,6 +128,12 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>PSYCHOLANZ 12/50 MG 30 CAPS.</t>
   </si>
   <si>
@@ -132,6 +144,9 @@
   </si>
   <si>
     <t>SOLOVIT VIT E CAP</t>
+  </si>
+  <si>
+    <t>SOLUPRED ORO 20MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -793,7 +808,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -819,11 +834,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>-28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -831,7 +846,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -839,17 +854,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -865,13 +880,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -883,7 +898,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -891,17 +906,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -917,13 +932,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -935,7 +950,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -943,17 +958,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -961,7 +976,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -969,17 +984,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -987,7 +1002,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -995,17 +1010,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1013,7 +1028,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1021,17 +1036,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1047,17 +1062,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1065,7 +1080,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1073,13 +1088,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>30.670000000000002</v>
+        <v>109</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1099,17 +1114,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1131,11 +1146,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>22</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1151,17 +1166,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1177,17 +1192,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1203,17 +1218,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>-57</v>
+        <v>36</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1229,17 +1244,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1255,17 +1270,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>31</v>
+        <v>-57</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1281,17 +1296,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1307,13 +1322,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>7.0499999999999998</v>
+        <v>31</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1325,7 +1340,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1333,17 +1348,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>-185</v>
+        <v>15</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1359,17 +1374,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>45.5</v>
+        <v>67</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1377,7 +1392,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1385,17 +1400,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>70</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1417,11 +1432,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>23</v>
+        <v>-185</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1437,17 +1452,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1463,17 +1478,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>26</v>
+        <v>45.5</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1481,7 +1496,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1489,13 +1504,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1515,17 +1530,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1533,7 +1548,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1541,17 +1556,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1559,7 +1574,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1567,17 +1582,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1585,7 +1600,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1593,17 +1608,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1611,7 +1626,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1619,17 +1634,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1637,7 +1652,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1645,17 +1660,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1663,7 +1678,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1671,17 +1686,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1689,7 +1704,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1697,51 +1712,155 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" ht="26.25" customHeight="1">
-      <c r="K40" s="10">
-        <v>1225.8199999999999</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
         <v>62</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c t="s" r="F41" s="12">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>9</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>150</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c t="s" r="N40" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
         <v>63</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c t="s" r="I41" s="14">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
+        <v>58</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>85</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c t="s" r="N41" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c t="s" r="B42" s="7">
         <v>64</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c t="s" r="H42" s="8">
+        <v>9</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c t="s" r="N42" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" customHeight="1">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
+        <v>65</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
+        <v>66</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>70</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c t="s" r="N43" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="K44" s="10">
+        <v>1366.8199999999999</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="11">
+        <v>67</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c t="s" r="F45" s="12">
+        <v>68</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c t="s" r="I45" s="14">
+        <v>69</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="131">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1857,10 +1976,22 @@
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:N45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
